--- a/data/测试数据.xlsx
+++ b/data/测试数据.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>编号</t>
   </si>
@@ -45,6 +45,9 @@
     <t>browser</t>
   </si>
   <si>
+    <t>FirFox</t>
+  </si>
+  <si>
     <t>open</t>
   </si>
   <si>
@@ -76,6 +79,18 @@
   </si>
   <si>
     <t>./image/baidu.png</t>
+  </si>
+  <si>
+    <t>assert_text</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>//*[@id="1"]/div/div/h3/a/em</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
 </sst>
 </file>
@@ -83,12 +98,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +120,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -113,12 +135,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -126,33 +163,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -197,30 +243,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -228,20 +250,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,25 +272,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFAACF91"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,19 +386,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,133 +434,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,6 +483,47 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,47 +563,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -544,154 +572,155 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1054,18 +1083,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="5.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="13.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="15.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="13.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="32.1111111111111" customWidth="1"/>
     <col min="5" max="5" width="21.4444444444444" customWidth="1"/>
     <col min="6" max="6" width="5.66666666666667" customWidth="1"/>
     <col min="7" max="9" width="9.66666666666667" customWidth="1"/>
@@ -1097,12 +1126,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1110,10 +1142,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1121,7 +1153,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -1132,16 +1164,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1149,13 +1181,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1163,10 +1195,30 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
